--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,19 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
     <sheet name="20200826" sheetId="2" r:id="rId2"/>
     <sheet name="20200828" sheetId="3" r:id="rId3"/>
+    <sheet name="20200831" sheetId="4" r:id="rId4"/>
+    <sheet name="20200901" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -61,17 +63,23 @@
   <si>
     <t>Api list country</t>
   </si>
+  <si>
+    <t>Hoan thanh</t>
+  </si>
+  <si>
+    <t>Ngay hom nay lam thu tuc ben Nhat nen tien do Task bi cham</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -102,13 +110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -118,10 +119,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,16 +134,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -153,6 +170,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -161,14 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +207,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,19 +228,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,15 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,13 +257,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -265,19 +273,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,19 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,48 +441,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,90 +453,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -474,6 +482,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF9DC3E6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DC3E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DC3E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DC3E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DC3E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DC3E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9DC3E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DC3E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9DC3E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DC3E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9DC3E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DC3E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,45 +572,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -542,8 +591,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,142 +639,157 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
@@ -709,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
@@ -717,18 +805,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -740,6 +837,24 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1150,13 +1265,13 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1164,123 +1279,123 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1306,20 +1421,20 @@
     <col min="7" max="7" width="22" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="6" ht="25.5" spans="3:7">
+    <row r="6" spans="3:7">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1327,16 +1442,16 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1344,108 +1459,108 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>0.5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>0.5</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1461,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="C5:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1473,20 +1588,20 @@
     <col min="7" max="7" width="25.8" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="5" ht="25.5" spans="3:7">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1494,16 +1609,16 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>0.5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1511,111 +1626,111 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>0.2</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>0.7</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1624,4 +1739,341 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="17.6" customWidth="true"/>
+    <col min="6" max="6" width="25.6" customWidth="true"/>
+    <col min="7" max="7" width="30.6" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="25.5" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D6:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="27.3" customWidth="true"/>
+    <col min="7" max="7" width="22" customWidth="true"/>
+    <col min="8" max="8" width="23.2" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="25.5" spans="4:8">
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="5"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="D14" s="6"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="D12:H13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="12510" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21930" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
@@ -82,11 +82,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -107,6 +107,154 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -116,154 +264,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -280,19 +280,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,6 +418,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,109 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,30 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +569,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -598,21 +613,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,138 +669,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2091,7 +2091,7 @@
   <dimension ref="C5:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>

--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21930" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="20200831" sheetId="4" r:id="rId4"/>
     <sheet name="20200901" sheetId="5" r:id="rId5"/>
     <sheet name="20200903" sheetId="6" r:id="rId6"/>
+    <sheet name="20200904" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -83,10 +84,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -107,6 +108,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -117,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -137,8 +145,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,63 +235,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,50 +259,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -280,25 +281,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +425,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,23 +597,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,161 +647,197 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -829,24 +851,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -1272,137 +1276,137 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1435,139 +1439,139 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0.5</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>0.5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1602,142 +1606,142 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0.2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>0.7</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1771,140 +1775,140 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>0.5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>0.7</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1938,142 +1942,142 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:8">
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0.5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:8">
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0.5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="4:8">
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="4:8">
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>0.7</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="4:8">
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="4:8">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="4:8">
-      <c r="D15" s="2"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="4:8">
-      <c r="D19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2090,8 +2094,8 @@
   <sheetPr/>
   <dimension ref="C5:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2109,73 +2113,73 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0.75</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2184,4 +2188,73 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="25.5" customWidth="true"/>
+    <col min="5" max="5" width="15.9" customWidth="true"/>
+    <col min="6" max="6" width="16" customWidth="true"/>
+    <col min="7" max="7" width="35.1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="20200901" sheetId="5" r:id="rId5"/>
     <sheet name="20200903" sheetId="6" r:id="rId6"/>
     <sheet name="20200904" sheetId="7" r:id="rId7"/>
+    <sheet name="20200907" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -77,17 +78,20 @@
   <si>
     <t xml:space="preserve">Import File create base design </t>
   </si>
+  <si>
+    <t>API Import File</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -110,8 +114,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,13 +137,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -153,23 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,69 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -265,6 +209,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -281,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,8 +601,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,161 +666,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2195,8 +2199,8 @@
   <sheetPr/>
   <dimension ref="C5:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2257,4 +2261,72 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="26.1" customWidth="true"/>
+    <col min="5" max="5" width="15" customWidth="true"/>
+    <col min="6" max="6" width="23.9" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="25.5" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="20200903" sheetId="6" r:id="rId6"/>
     <sheet name="20200904" sheetId="7" r:id="rId7"/>
     <sheet name="20200907" sheetId="8" r:id="rId8"/>
+    <sheet name="20200908" sheetId="9" r:id="rId9"/>
+    <sheet name="20200909" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -87,11 +89,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -122,6 +124,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -137,74 +147,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +162,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,8 +205,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +258,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,7 +610,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +630,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,157 +673,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
@@ -1419,6 +1421,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="19.6" customWidth="true"/>
+    <col min="5" max="5" width="22" customWidth="true"/>
+    <col min="6" max="6" width="21.2" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="25.5" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2268,8 +2338,8 @@
   <sheetPr/>
   <dimension ref="C5:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2279,7 +2349,7 @@
     <col min="6" max="6" width="23.9" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="5" ht="25.5" spans="3:7">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2329,4 +2399,72 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C5:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="17.1" customWidth="true"/>
+    <col min="5" max="5" width="14" customWidth="true"/>
+    <col min="6" max="6" width="26.6" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="25.5" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/report/QueBX_report.xlsx
+++ b/report/QueBX_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="27135" windowHeight="12450" tabRatio="500" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20200825" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="20200907" sheetId="8" r:id="rId8"/>
     <sheet name="20200908" sheetId="9" r:id="rId9"/>
     <sheet name="20200909" sheetId="10" r:id="rId10"/>
+    <sheet name="20200914" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -83,6 +84,15 @@
   <si>
     <t>API Import File</t>
   </si>
+  <si>
+    <t>Review Api Import File</t>
+  </si>
+  <si>
+    <t>Fix Review</t>
+  </si>
+  <si>
+    <t>Api forgot password</t>
+  </si>
 </sst>
 </file>
 
@@ -90,12 +100,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,6 +116,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
@@ -124,8 +140,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -141,17 +169,94 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,17 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,89 +287,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -287,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,36 +592,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -630,6 +616,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -649,228 +689,247 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="47" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1282,137 +1341,137 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
+      <c r="C6" s="19">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="2">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1426,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="C5:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -1437,51 +1496,149 @@
     <col min="6" max="6" width="21.2" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="5" ht="25.5" spans="3:7">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="37.4" customWidth="true"/>
+    <col min="4" max="4" width="18.6" customWidth="true"/>
+    <col min="5" max="5" width="20.4" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1513,139 +1670,139 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>0.5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="2">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>0.5</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="2">
+      <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>0.5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="11"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="11"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1680,142 +1837,142 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="24">
         <v>0.5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="2">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>0.5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="24">
         <v>0.2</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="4">
+      <c r="C9" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>0.7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1849,140 +2006,140 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="24">
         <v>0.5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="2">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>0.5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4">
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="4">
+      <c r="C9" s="21">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="24">
         <v>0.7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="11"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="11"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="3:7">
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="11"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2016,142 +2173,142 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:8">
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="24">
         <v>0.5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="4:8">
-      <c r="D8" s="2">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="24">
         <v>0.5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="4:8">
-      <c r="D9" s="4">
+      <c r="D9" s="21">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="4:8">
-      <c r="D10" s="4">
+      <c r="D10" s="21">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="24">
         <v>0.7</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="4:8">
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="4:8">
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="4:8">
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="11"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="11"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="11"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="4:8">
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2187,73 +2344,73 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="2">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="24">
         <v>0.75</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2288,44 +2445,44 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2356,44 +2513,44 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="22">
         <v>0.4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2417,51 +2574,51 @@
     <col min="6" max="6" width="26.6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="5" ht="25.5" spans="3:7">
+    <row r="5" spans="3:7">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="22">
         <v>0.7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
